--- a/2024/shuffle-architecute/Teste10/content/results/metrics_7_9.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_7_9.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9805645747810396</v>
+        <v>0.9798503833909816</v>
       </c>
       <c r="C2" t="n">
-        <v>0.757230276772485</v>
+        <v>0.758303025979747</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8195172551764601</v>
+        <v>0.9164662594671483</v>
       </c>
       <c r="E2" t="n">
-        <v>0.947295139778902</v>
+        <v>0.8019787210404934</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9346238243638493</v>
+        <v>0.8555280975980302</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08156632632017136</v>
+        <v>0.08456362783908844</v>
       </c>
       <c r="H2" t="n">
-        <v>1.623402237892151</v>
+        <v>1.616228818893433</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1157887205481529</v>
+        <v>0.05125974118709564</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3054112493991852</v>
+        <v>0.3396909236907959</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2106001675128937</v>
+        <v>0.1954752951860428</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9805931178981744</v>
+        <v>0.9798395187430466</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7571954575836743</v>
+        <v>0.7583009837478711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8215397941288632</v>
+        <v>0.9172421035513971</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9475106937866493</v>
+        <v>0.8031641351977201</v>
       </c>
       <c r="F3" t="n">
-        <v>0.935019138609779</v>
+        <v>0.8564554082632796</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08144653588533401</v>
+        <v>0.08460923284292221</v>
       </c>
       <c r="H3" t="n">
-        <v>1.623635053634644</v>
+        <v>1.616242408752441</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1144911646842957</v>
+        <v>0.05078365281224251</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3041621744632721</v>
+        <v>0.3376574218273163</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2093267142772675</v>
+        <v>0.1942206174135208</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9806202291280141</v>
+        <v>0.9798265706058034</v>
       </c>
       <c r="C4" t="n">
-        <v>0.757159298044827</v>
+        <v>0.7582980733186669</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8235654702428232</v>
+        <v>0.9179984621887937</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9477256764716214</v>
+        <v>0.8043577999622205</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9354142221719201</v>
+        <v>0.8573837155085114</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08133275061845779</v>
+        <v>0.08466356992721558</v>
       </c>
       <c r="H4" t="n">
-        <v>1.623876810073853</v>
+        <v>1.616261959075928</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1131915897130966</v>
+        <v>0.05031951889395714</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3029163777828217</v>
+        <v>0.3356097936630249</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2080540060997009</v>
+        <v>0.1929645836353302</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9806458203407299</v>
+        <v>0.9798114460468033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7571217689632741</v>
+        <v>0.7582942868990374</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8255936606588068</v>
+        <v>0.9187336273869785</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9479398766836489</v>
+        <v>0.8055595459459918</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9358088657130855</v>
+        <v>0.8583122523521424</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08122535049915314</v>
+        <v>0.08472704142332077</v>
       </c>
       <c r="H5" t="n">
-        <v>1.624127864837646</v>
+        <v>1.616287231445312</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1118903979659081</v>
+        <v>0.0498683899641037</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3016751408576965</v>
+        <v>0.3335482776165009</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2067826986312866</v>
+        <v>0.1917082518339157</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9806698444161212</v>
+        <v>0.9797942014674587</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7570828082376541</v>
+        <v>0.7582896128271519</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8276247716645038</v>
+        <v>0.9194478357306212</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9481533747555994</v>
+        <v>0.8067709579040933</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9362030763457978</v>
+        <v>0.8592421374081292</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08112452179193497</v>
+        <v>0.08479941636323929</v>
       </c>
       <c r="H6" t="n">
-        <v>1.624388456344604</v>
+        <v>1.616318464279175</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1105873435735703</v>
+        <v>0.04943012446165085</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3004379570484161</v>
+        <v>0.3314701914787292</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2055128216743469</v>
+        <v>0.1904500871896744</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.980692280108955</v>
+        <v>0.9797746744532737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7570423931283433</v>
+        <v>0.758284053853179</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8296583358203923</v>
+        <v>0.920140300528453</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9483660177889596</v>
+        <v>0.8079904114490167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.936596850788223</v>
+        <v>0.8601721714717077</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08103036880493164</v>
+        <v>0.08488136529922485</v>
       </c>
       <c r="H7" t="n">
-        <v>1.624658584594727</v>
+        <v>1.616355657577515</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1092827096581459</v>
+        <v>0.04900519549846649</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2992057502269745</v>
+        <v>0.3293783068656921</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2042443305253983</v>
+        <v>0.1891916990280151</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9807130411049829</v>
+        <v>0.9797528515598354</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7570004699081426</v>
+        <v>0.7582775602451544</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8316933482040846</v>
+        <v>0.9208101101981591</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9485776849786862</v>
+        <v>0.809218600962989</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9369899449152826</v>
+        <v>0.8611026473675201</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08094324171543121</v>
+        <v>0.08497294783592224</v>
       </c>
       <c r="H8" t="n">
-        <v>1.62493896484375</v>
+        <v>1.616399049758911</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1079771444201469</v>
+        <v>0.04859417676925659</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2979791760444641</v>
+        <v>0.3272714614868164</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2029780149459839</v>
+        <v>0.1879327446222305</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.980732132331616</v>
+        <v>0.9797286347740209</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7569570454092938</v>
+        <v>0.7582700862493055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8337313856981287</v>
+        <v>0.9214570658212207</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9487884827015731</v>
+        <v>0.8104552224162627</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9373824384294649</v>
+        <v>0.8620331974172117</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08086312562227249</v>
+        <v>0.08507458865642548</v>
       </c>
       <c r="H9" t="n">
-        <v>1.625229358673096</v>
+        <v>1.616448998451233</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1066696494817734</v>
+        <v>0.0481971763074398</v>
       </c>
       <c r="J9" t="n">
-        <v>0.296757698059082</v>
+        <v>0.3251501023769379</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2017136663198471</v>
+        <v>0.1866736859083176</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9807494533613889</v>
+        <v>0.9797019991812139</v>
       </c>
       <c r="C10" t="n">
-        <v>0.756912029463658</v>
+        <v>0.7582616166437636</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8357708368519529</v>
+        <v>0.9220798749664355</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9489981782862427</v>
+        <v>0.8117005483497899</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9377741660397242</v>
+        <v>0.8629638299906963</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08079041540622711</v>
+        <v>0.08518636971712112</v>
       </c>
       <c r="H10" t="n">
-        <v>1.625530481338501</v>
+        <v>1.616505742073059</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1053612306714058</v>
+        <v>0.0478149950504303</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2955425679683685</v>
+        <v>0.3230138421058655</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2004517614841461</v>
+        <v>0.1854145079851151</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9807649579176484</v>
+        <v>0.9796727980122775</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7568654229091611</v>
+        <v>0.7582521243989041</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8378116983992874</v>
+        <v>0.922677843160812</v>
       </c>
       <c r="E11" t="n">
-        <v>0.949206782661551</v>
+        <v>0.8129537513683294</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9381650270493218</v>
+        <v>0.8638939658553475</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08072535693645477</v>
+        <v>0.08530891686677933</v>
       </c>
       <c r="H11" t="n">
-        <v>1.625842094421387</v>
+        <v>1.6165691614151</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1040519177913666</v>
+        <v>0.0474480614066124</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2943337261676788</v>
+        <v>0.3208640515804291</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1991926729679108</v>
+        <v>0.1841560006141663</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9807786261289437</v>
+        <v>0.9796410574807364</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7568171648808959</v>
+        <v>0.7582416083754909</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8398542393537543</v>
+        <v>0.9232505564971554</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9494142541562119</v>
+        <v>0.8142159960143959</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9385549353886055</v>
+        <v>0.8648239977289329</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08066799491643906</v>
+        <v>0.08544212579727173</v>
       </c>
       <c r="H12" t="n">
-        <v>1.626164674758911</v>
+        <v>1.616639494895935</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1027415245771408</v>
+        <v>0.0470966175198555</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2931315302848816</v>
+        <v>0.3186987638473511</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1979366391897202</v>
+        <v>0.1828976273536682</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9807903951521187</v>
+        <v>0.9796066530229861</v>
       </c>
       <c r="C13" t="n">
-        <v>0.756767225116619</v>
+        <v>0.7582300206074702</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8418978887532205</v>
+        <v>0.9237977689274093</v>
       </c>
       <c r="E13" t="n">
-        <v>0.949620612089088</v>
+        <v>0.8154864342621582</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9389440345694854</v>
+        <v>0.865753361303721</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08061859011650085</v>
+        <v>0.08558651059865952</v>
       </c>
       <c r="H13" t="n">
-        <v>1.626498699188232</v>
+        <v>1.616716980934143</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1014304235577583</v>
+        <v>0.04676082730293274</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2919357419013977</v>
+        <v>0.3165194392204285</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1966832131147385</v>
+        <v>0.1816401779651642</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9808001320738909</v>
+        <v>0.9795695176533217</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7567155377924146</v>
+        <v>0.7582173351081075</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8439416261605159</v>
+        <v>0.924317774065841</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9498253910973344</v>
+        <v>0.8167653245369014</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9393318017458996</v>
+        <v>0.8666820355939577</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08057773858308792</v>
+        <v>0.08574236184358597</v>
       </c>
       <c r="H14" t="n">
-        <v>1.62684440612793</v>
+        <v>1.616801738739014</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1001192629337311</v>
+        <v>0.04644173011183739</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2907490730285645</v>
+        <v>0.3143256008625031</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1954340785741806</v>
+        <v>0.1803836524486542</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9808078848697461</v>
+        <v>0.9795295869093306</v>
       </c>
       <c r="C15" t="n">
-        <v>0.756662070255974</v>
+        <v>0.7582035319247075</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8459863391844993</v>
+        <v>0.9248103745048686</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9500289454220403</v>
+        <v>0.8180525365401626</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9397184630459183</v>
+        <v>0.8676097494572486</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08054520934820175</v>
+        <v>0.08590994775295258</v>
       </c>
       <c r="H15" t="n">
-        <v>1.627201795578003</v>
+        <v>1.616894125938416</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09880746901035309</v>
+        <v>0.04613945260643959</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2895695269107819</v>
+        <v>0.3121174573898315</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1941884905099869</v>
+        <v>0.179128423333168</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.980813549365941</v>
+        <v>0.9794867705372141</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7566067812562072</v>
+        <v>0.7581885372950823</v>
       </c>
       <c r="D16" t="n">
-        <v>0.848032090791597</v>
+        <v>0.9252751136660929</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9502309231914584</v>
+        <v>0.8193477939306176</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9401038303016517</v>
+        <v>0.8685361418552732</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08052141964435577</v>
+        <v>0.08608964085578918</v>
       </c>
       <c r="H16" t="n">
-        <v>1.627571582794189</v>
+        <v>1.616994380950928</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09749502688646317</v>
+        <v>0.04585427045822144</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2883991003036499</v>
+        <v>0.3098955750465393</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1929470747709274</v>
+        <v>0.1778749823570251</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9808170809374642</v>
+        <v>0.9794409949794091</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7565496436595706</v>
+        <v>0.7581724129730667</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8500776642962528</v>
+        <v>0.925710539325006</v>
       </c>
       <c r="E17" t="n">
-        <v>0.950431439629432</v>
+        <v>0.8206512367791144</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9404878774154051</v>
+        <v>0.8694612831259334</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08050660043954849</v>
+        <v>0.08628174662590027</v>
       </c>
       <c r="H17" t="n">
-        <v>1.6279536485672</v>
+        <v>1.617102265357971</v>
       </c>
       <c r="I17" t="n">
-        <v>0.096182681620121</v>
+        <v>0.04558707028627396</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2872371673583984</v>
+        <v>0.3076595962047577</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1917099356651306</v>
+        <v>0.1766232401132584</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9808183742696087</v>
+        <v>0.9793922127289265</v>
       </c>
       <c r="C18" t="n">
-        <v>0.756490600708204</v>
+        <v>0.7581550567990212</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8521226374423458</v>
+        <v>0.9261160622824024</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9506302837088415</v>
+        <v>0.8219632391508245</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9408703873987788</v>
+        <v>0.8703848379542544</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08050117641687393</v>
+        <v>0.08648648113012314</v>
       </c>
       <c r="H18" t="n">
-        <v>1.628348588943481</v>
+        <v>1.617218255996704</v>
       </c>
       <c r="I18" t="n">
-        <v>0.09487073868513107</v>
+        <v>0.045338224619627</v>
       </c>
       <c r="J18" t="n">
-        <v>0.286084920167923</v>
+        <v>0.3054089546203613</v>
       </c>
       <c r="K18" t="n">
-        <v>0.190477728843689</v>
+        <v>0.1753736436367035</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9808174173723302</v>
+        <v>0.9793403322039554</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7564295762994636</v>
+        <v>0.7581364625471478</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8541680646906916</v>
+        <v>0.9264921607083205</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9508273890743038</v>
+        <v>0.8232830746318152</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9412513244791053</v>
+        <v>0.87130679557445</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08050519227981567</v>
+        <v>0.08670420944690704</v>
       </c>
       <c r="H19" t="n">
-        <v>1.628756523132324</v>
+        <v>1.617342710494995</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09355849027633667</v>
+        <v>0.04510743916034698</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2849427461624146</v>
+        <v>0.3031448721885681</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1892505884170532</v>
+        <v>0.1741261780261993</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9808141393703038</v>
+        <v>0.9792852421256264</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7563665459870073</v>
+        <v>0.7581166086296721</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8562123256992059</v>
+        <v>0.9268362833981842</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9510227655710806</v>
+        <v>0.8246110027331927</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9416306030599217</v>
+        <v>0.8722267129867984</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08051895350217819</v>
+        <v>0.08693540841341019</v>
       </c>
       <c r="H20" t="n">
-        <v>1.629178166389465</v>
+        <v>1.617475390434265</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09224699437618256</v>
+        <v>0.04489626735448837</v>
       </c>
       <c r="J20" t="n">
-        <v>0.283810555934906</v>
+        <v>0.3008669018745422</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1880288124084473</v>
+        <v>0.1728815138339996</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9808084847359354</v>
+        <v>0.9792268482879688</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7563014442617678</v>
+        <v>0.7580954406304063</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8582566956741149</v>
+        <v>0.9271486308779727</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9512162466157322</v>
+        <v>0.8259466314737467</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9420082016071574</v>
+        <v>0.8731441340704404</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08054269105195999</v>
+        <v>0.08718047291040421</v>
       </c>
       <c r="H21" t="n">
-        <v>1.629613399505615</v>
+        <v>1.617616891860962</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09093543142080307</v>
+        <v>0.04470459744334221</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2826894223690033</v>
+        <v>0.2985757291316986</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1868124306201935</v>
+        <v>0.1716402173042297</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9808003217411156</v>
+        <v>0.9791650886003727</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7562342316293637</v>
+        <v>0.7580729414907226</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8602991172282692</v>
+        <v>0.9274280528267066</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9514077034463954</v>
+        <v>0.8272900640064272</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9423837331388355</v>
+        <v>0.874059172785683</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08057693392038345</v>
+        <v>0.08743966370820999</v>
       </c>
       <c r="H22" t="n">
-        <v>1.630062818527222</v>
+        <v>1.617767333984375</v>
       </c>
       <c r="I22" t="n">
-        <v>0.08962512016296387</v>
+        <v>0.0445331335067749</v>
       </c>
       <c r="J22" t="n">
-        <v>0.281580001115799</v>
+        <v>0.2962711751461029</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1856026947498322</v>
+        <v>0.1704021394252777</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9807896666552439</v>
+        <v>0.9790999152125424</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7561648676524406</v>
+        <v>0.7580491135562198</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8623409478597518</v>
+        <v>0.927673784608663</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9515970641716888</v>
+        <v>0.8286415647285326</v>
       </c>
       <c r="F23" t="n">
-        <v>0.942757400968295</v>
+        <v>0.8749716307667367</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08062165230512619</v>
+        <v>0.08771317452192307</v>
       </c>
       <c r="H23" t="n">
-        <v>1.630526661872864</v>
+        <v>1.617926836013794</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08831517398357391</v>
+        <v>0.04438234120607376</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2804826498031616</v>
+        <v>0.2939527630805969</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1843989789485931</v>
+        <v>0.169167548418045</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9807764010967691</v>
+        <v>0.9790311982006966</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7560932796352269</v>
+        <v>0.7580238834010598</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8643806968792495</v>
+        <v>0.927885885129534</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9517842832555492</v>
+        <v>0.8300007134275189</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9431289221395637</v>
+        <v>0.8758812708006406</v>
       </c>
       <c r="G24" t="n">
-        <v>0.080677330493927</v>
+        <v>0.08800157904624939</v>
       </c>
       <c r="H24" t="n">
-        <v>1.63100528717041</v>
+        <v>1.618095397949219</v>
       </c>
       <c r="I24" t="n">
-        <v>0.087006576359272</v>
+        <v>0.0442521907389164</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2793977856636047</v>
+        <v>0.2916212677955627</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1832021772861481</v>
+        <v>0.167936772108078</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.980760488524929</v>
+        <v>0.9789588474069796</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7560194241819721</v>
+        <v>0.7579972193256523</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8664184543813751</v>
+        <v>0.9280626039132454</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9519693067593511</v>
+        <v>0.831367185985959</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9434982087930006</v>
+        <v>0.8767876258609338</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08074411749839783</v>
+        <v>0.08830520510673523</v>
       </c>
       <c r="H25" t="n">
-        <v>1.631499290466309</v>
+        <v>1.618273735046387</v>
       </c>
       <c r="I25" t="n">
-        <v>0.08569925278425217</v>
+        <v>0.04414374753832817</v>
       </c>
       <c r="J25" t="n">
-        <v>0.278325617313385</v>
+        <v>0.2892771661281586</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1820125728845596</v>
+        <v>0.1667104512453079</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9807418300595313</v>
+        <v>0.9788827931686837</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7559432194521678</v>
+        <v>0.7579691128986368</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8684551018960961</v>
+        <v>0.9282035482551833</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9521518657433339</v>
+        <v>0.8327414123887813</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9438652900743628</v>
+        <v>0.8776907496797507</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0808224081993103</v>
+        <v>0.08862440288066864</v>
       </c>
       <c r="H26" t="n">
-        <v>1.632008790969849</v>
+        <v>1.618461608886719</v>
       </c>
       <c r="I26" t="n">
-        <v>0.08439264446496964</v>
+        <v>0.04405725747346878</v>
       </c>
       <c r="J26" t="n">
-        <v>0.277267724275589</v>
+        <v>0.2869197726249695</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1808300763368607</v>
+        <v>0.1654884964227676</v>
       </c>
     </row>
   </sheetData>
